--- a/biology/Histoire de la zoologie et de la botanique/Donald_Ward_Tinkle/Donald_Ward_Tinkle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Donald_Ward_Tinkle/Donald_Ward_Tinkle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald Ward Tinkle est un écologiste américain, né le 3 décembre 1930 à Dallas et mort le 21 février 1980 à Saline dans le Michigan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1952, il obtient son Bachelor of Sciences à l’université méthodiste de Dallas puis étudie auprès de Fred Ray Cagle (1915-1968) à l’Université Tulane à La Nouvelle-Orléans où il obtient son Master of Sciences, en 1955, puis son Ph. D., en 1956.
 Il enseigne à l’université d’État de l’ouest du Texas jusqu’en 1965 avant d’enseigner la zoologie au Muséum de zoologie de l’Université du Michigan et d’être conservateur du département des reptiles et des amphibiens. Il dirige le Muséum à partir de 1975, fonction qu’il conserve jusqu’à sa mort.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.</t>
         </is>
